--- a/biology/Botanique/Conostegia/Conostegia.xlsx
+++ b/biology/Botanique/Conostegia/Conostegia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conostegia est un genre  de plantes de la famille des Melastomataceae originaire d'Amérique Centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Conostegia vient du grec « κώνος » (cône)  et « στέγη » (toit). La désignation fait référence à la conception du calice.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Tropicos, consulté le=21 Avril 2020.
 Conostegia apiculata
@@ -616,7 +632,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Conostegia sont des arbustes ou des petits arbres. La plus grande espèce du genre Conostegia volcanalis, peut atteindre 20 m.
 </t>
